--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slamf1-Slamf1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slamf1-Slamf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,12 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -443,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,557 +510,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05629566666666666</v>
+        <v>0.186019</v>
       </c>
       <c r="H2">
-        <v>0.168887</v>
+        <v>0.558057</v>
       </c>
       <c r="I2">
-        <v>0.626386668694204</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.626386668694204</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05629566666666666</v>
+        <v>0.186019</v>
       </c>
       <c r="N2">
-        <v>0.168887</v>
+        <v>0.558057</v>
       </c>
       <c r="O2">
-        <v>0.626386668694204</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.626386668694204</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.003169202085444444</v>
+        <v>0.03460306836100001</v>
       </c>
       <c r="R2">
-        <v>0.02852281876899999</v>
+        <v>0.311427615249</v>
       </c>
       <c r="S2">
-        <v>0.3923602587178225</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.3923602587178225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.05629566666666666</v>
-      </c>
-      <c r="H3">
-        <v>0.168887</v>
-      </c>
-      <c r="I3">
-        <v>0.626386668694204</v>
-      </c>
-      <c r="J3">
-        <v>0.626386668694204</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.008843</v>
-      </c>
-      <c r="N3">
-        <v>0.026529</v>
-      </c>
-      <c r="O3">
-        <v>0.09839367111612225</v>
-      </c>
-      <c r="P3">
-        <v>0.09839367111612227</v>
-      </c>
-      <c r="Q3">
-        <v>0.0004978225803333333</v>
-      </c>
-      <c r="R3">
-        <v>0.004480403223</v>
-      </c>
-      <c r="S3">
-        <v>0.06163248387102094</v>
-      </c>
-      <c r="T3">
-        <v>0.06163248387102095</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.05629566666666666</v>
-      </c>
-      <c r="H4">
-        <v>0.168887</v>
-      </c>
-      <c r="I4">
-        <v>0.626386668694204</v>
-      </c>
-      <c r="J4">
-        <v>0.626386668694204</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.024735</v>
-      </c>
-      <c r="N4">
-        <v>0.07420500000000001</v>
-      </c>
-      <c r="O4">
-        <v>0.2752196601896737</v>
-      </c>
-      <c r="P4">
-        <v>0.2752196601896737</v>
-      </c>
-      <c r="Q4">
-        <v>0.001392473315</v>
-      </c>
-      <c r="R4">
-        <v>0.012532259835</v>
-      </c>
-      <c r="S4">
-        <v>0.1723939261053606</v>
-      </c>
-      <c r="T4">
-        <v>0.1723939261053606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.008843</v>
-      </c>
-      <c r="H5">
-        <v>0.026529</v>
-      </c>
-      <c r="I5">
-        <v>0.09839367111612225</v>
-      </c>
-      <c r="J5">
-        <v>0.09839367111612227</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.05629566666666666</v>
-      </c>
-      <c r="N5">
-        <v>0.168887</v>
-      </c>
-      <c r="O5">
-        <v>0.626386668694204</v>
-      </c>
-      <c r="P5">
-        <v>0.626386668694204</v>
-      </c>
-      <c r="Q5">
-        <v>0.0004978225803333333</v>
-      </c>
-      <c r="R5">
-        <v>0.004480403223</v>
-      </c>
-      <c r="S5">
-        <v>0.06163248387102094</v>
-      </c>
-      <c r="T5">
-        <v>0.06163248387102095</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.008843</v>
-      </c>
-      <c r="H6">
-        <v>0.026529</v>
-      </c>
-      <c r="I6">
-        <v>0.09839367111612225</v>
-      </c>
-      <c r="J6">
-        <v>0.09839367111612227</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.008843</v>
-      </c>
-      <c r="N6">
-        <v>0.026529</v>
-      </c>
-      <c r="O6">
-        <v>0.09839367111612225</v>
-      </c>
-      <c r="P6">
-        <v>0.09839367111612227</v>
-      </c>
-      <c r="Q6">
-        <v>7.819864900000001E-05</v>
-      </c>
-      <c r="R6">
-        <v>0.000703787841</v>
-      </c>
-      <c r="S6">
-        <v>0.009681314515707631</v>
-      </c>
-      <c r="T6">
-        <v>0.009681314515707633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.008843</v>
-      </c>
-      <c r="H7">
-        <v>0.026529</v>
-      </c>
-      <c r="I7">
-        <v>0.09839367111612225</v>
-      </c>
-      <c r="J7">
-        <v>0.09839367111612227</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.024735</v>
-      </c>
-      <c r="N7">
-        <v>0.07420500000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.2752196601896737</v>
-      </c>
-      <c r="P7">
-        <v>0.2752196601896737</v>
-      </c>
-      <c r="Q7">
-        <v>0.000218731605</v>
-      </c>
-      <c r="R7">
-        <v>0.001968584445</v>
-      </c>
-      <c r="S7">
-        <v>0.02707987272939368</v>
-      </c>
-      <c r="T7">
-        <v>0.02707987272939368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.024735</v>
-      </c>
-      <c r="H8">
-        <v>0.07420500000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.2752196601896737</v>
-      </c>
-      <c r="J8">
-        <v>0.2752196601896737</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.05629566666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.168887</v>
-      </c>
-      <c r="O8">
-        <v>0.626386668694204</v>
-      </c>
-      <c r="P8">
-        <v>0.626386668694204</v>
-      </c>
-      <c r="Q8">
-        <v>0.001392473315</v>
-      </c>
-      <c r="R8">
-        <v>0.012532259835</v>
-      </c>
-      <c r="S8">
-        <v>0.1723939261053606</v>
-      </c>
-      <c r="T8">
-        <v>0.1723939261053606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.024735</v>
-      </c>
-      <c r="H9">
-        <v>0.07420500000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.2752196601896737</v>
-      </c>
-      <c r="J9">
-        <v>0.2752196601896737</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.008843</v>
-      </c>
-      <c r="N9">
-        <v>0.026529</v>
-      </c>
-      <c r="O9">
-        <v>0.09839367111612225</v>
-      </c>
-      <c r="P9">
-        <v>0.09839367111612227</v>
-      </c>
-      <c r="Q9">
-        <v>0.000218731605</v>
-      </c>
-      <c r="R9">
-        <v>0.001968584445</v>
-      </c>
-      <c r="S9">
-        <v>0.02707987272939368</v>
-      </c>
-      <c r="T9">
-        <v>0.02707987272939368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.024735</v>
-      </c>
-      <c r="H10">
-        <v>0.07420500000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.2752196601896737</v>
-      </c>
-      <c r="J10">
-        <v>0.2752196601896737</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.024735</v>
-      </c>
-      <c r="N10">
-        <v>0.07420500000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.2752196601896737</v>
-      </c>
-      <c r="P10">
-        <v>0.2752196601896737</v>
-      </c>
-      <c r="Q10">
-        <v>0.0006118202250000002</v>
-      </c>
-      <c r="R10">
-        <v>0.005506382025000001</v>
-      </c>
-      <c r="S10">
-        <v>0.07574586135491947</v>
-      </c>
-      <c r="T10">
-        <v>0.07574586135491947</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
